--- a/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\workiss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -116,9 +116,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>sem</t>
-  </si>
-  <si>
     <t>c-num</t>
   </si>
   <si>
@@ -212,7 +209,10 @@
     <t>c_segop</t>
   </si>
   <si>
-    <t>Hubo Segunda Opcion</t>
+    <t>HUBO SEGUNDA OPCIÓN</t>
+  </si>
+  <si>
+    <t>SEMESTRE DE POSTULACIÓN</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,55 +255,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,201 +592,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="21" style="4" customWidth="1"/>
-    <col min="18" max="31" width="21" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" customWidth="1"/>
+    <col min="15" max="15" width="23.21875" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" customWidth="1"/>
+    <col min="18" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="29.21875" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="24.88671875" customWidth="1"/>
+    <col min="23" max="23" width="33.6640625" customWidth="1"/>
+    <col min="24" max="24" width="28.6640625" customWidth="1"/>
+    <col min="25" max="25" width="26.44140625" customWidth="1"/>
+    <col min="26" max="26" width="51.77734375" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
+    <col min="28" max="28" width="31" customWidth="1"/>
+    <col min="29" max="29" width="30.33203125" customWidth="1"/>
+    <col min="30" max="30" width="21" customWidth="1"/>
+    <col min="31" max="31" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AE5" s="3" t="s">

--- a/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\sisri2\sisri2\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Instrucciones" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
   <si>
     <t>N°</t>
   </si>
@@ -116,96 +117,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>c-num</t>
-  </si>
-  <si>
-    <t>c-sem</t>
-  </si>
-  <si>
-    <t>c-carr1</t>
-  </si>
-  <si>
-    <t>c-carr2</t>
-  </si>
-  <si>
-    <t>c-modadmi</t>
-  </si>
-  <si>
-    <t>c-modestu</t>
-  </si>
-  <si>
-    <t>c-estado</t>
-  </si>
-  <si>
-    <t>c-opcion</t>
-  </si>
-  <si>
-    <t>c-tipodoc</t>
-  </si>
-  <si>
-    <t>c-numdoc</t>
-  </si>
-  <si>
-    <t>c-codpos</t>
-  </si>
-  <si>
-    <t>c-apepat</t>
-  </si>
-  <si>
-    <t>c-apemat</t>
-  </si>
-  <si>
-    <t>c-noms</t>
-  </si>
-  <si>
-    <t>c-genero</t>
-  </si>
-  <si>
-    <t>c-fechanac</t>
-  </si>
-  <si>
-    <t>c-estadociv</t>
-  </si>
-  <si>
-    <t>c-esdisca</t>
-  </si>
-  <si>
-    <t>c-disca</t>
-  </si>
-  <si>
-    <t>c-puntaje</t>
-  </si>
-  <si>
-    <t>c-pais</t>
-  </si>
-  <si>
-    <t>c-depar</t>
-  </si>
-  <si>
-    <t>c-prov</t>
-  </si>
-  <si>
-    <t>c-dist</t>
-  </si>
-  <si>
-    <t>c.termino5</t>
-  </si>
-  <si>
-    <t>c-gestcolegio</t>
-  </si>
-  <si>
-    <t>c-direc</t>
-  </si>
-  <si>
-    <t>c-email</t>
-  </si>
-  <si>
-    <t>c-telf</t>
-  </si>
-  <si>
-    <t>c-obs</t>
-  </si>
-  <si>
     <t>c_segop</t>
   </si>
   <si>
@@ -213,13 +124,589 @@
   </si>
   <si>
     <t>SEMESTRE DE POSTULACIÓN</t>
+  </si>
+  <si>
+    <t>c_num</t>
+  </si>
+  <si>
+    <t>c_sem</t>
+  </si>
+  <si>
+    <t>c_carr1</t>
+  </si>
+  <si>
+    <t>c_carr2</t>
+  </si>
+  <si>
+    <t>c_modadmi</t>
+  </si>
+  <si>
+    <t>c_modestu</t>
+  </si>
+  <si>
+    <t>c_estado</t>
+  </si>
+  <si>
+    <t>c_opcion</t>
+  </si>
+  <si>
+    <t>c_tipodoc</t>
+  </si>
+  <si>
+    <t>c_numdoc</t>
+  </si>
+  <si>
+    <t>c_codpos</t>
+  </si>
+  <si>
+    <t>c_apepat</t>
+  </si>
+  <si>
+    <t>c_apemat</t>
+  </si>
+  <si>
+    <t>c_noms</t>
+  </si>
+  <si>
+    <t>c_genero</t>
+  </si>
+  <si>
+    <t>c_fechanac</t>
+  </si>
+  <si>
+    <t>c_estadociv</t>
+  </si>
+  <si>
+    <t>c_esdisca</t>
+  </si>
+  <si>
+    <t>c_disca</t>
+  </si>
+  <si>
+    <t>c_puntaje</t>
+  </si>
+  <si>
+    <t>c_pais</t>
+  </si>
+  <si>
+    <t>c_depar</t>
+  </si>
+  <si>
+    <t>c_prov</t>
+  </si>
+  <si>
+    <t>c_dist</t>
+  </si>
+  <si>
+    <t>c_termino5</t>
+  </si>
+  <si>
+    <t>c_gestcolegio</t>
+  </si>
+  <si>
+    <t>c_direc</t>
+  </si>
+  <si>
+    <t>c_email</t>
+  </si>
+  <si>
+    <t>c_telf</t>
+  </si>
+  <si>
+    <t>c_obs</t>
+  </si>
+  <si>
+    <t>Cartilla Instructiva para el correcto llenado de la Plantilla de Carga de Información en Lote de Postulantes de Pregrado - SISRI v2.0 UNASAM</t>
+  </si>
+  <si>
+    <t>Nota: Se deben de cumplir con estas consideraciones para cada fila de datos que se requiera registrar en la plantilla de datos. La cual debe de iniciar el primer registro en la fila N° 6 y continuar sin saltarse filas hasta el último registro que consigne</t>
+  </si>
+  <si>
+    <t>COLUMNA</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>OBLIGATORIO U OPCIONAL</t>
+  </si>
+  <si>
+    <t>TIPO DE DATO</t>
+  </si>
+  <si>
+    <t>DATOS A CONSIGNAR</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Columna en la Plantilla Excel</t>
+  </si>
+  <si>
+    <t>MENSAJE DE ERROR</t>
+  </si>
+  <si>
+    <t>Indicador numérico opcional para controlar la cantidad de registros. Ejemplo:
+1
+2
+…</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>Numérico entero</t>
+  </si>
+  <si>
+    <t>Datos entre [1:n]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Código de Semestre de postulación, el código de semestre debe extraerse de la tabla maestra de semestres. Ejemplo:
+1: Semestre A
+2: Semestre B
+…</t>
+  </si>
+  <si>
+    <t>Obligatorio</t>
+  </si>
+  <si>
+    <t>Datos entre [1: n]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Error en la Columna SEMESTRE DE POSTULACIÓN: 
+El Identificador de Semestre no corresponde a ninguno ingresado en la base de datos. Corrija la Columna B, Fila n</t>
+  </si>
+  <si>
+    <t>Código de Escuelas profesionales, este código debe extraerse de la tabla maestra de escuelas profesionales. Ejemplo:
+1: Carrera Profesional 1
+2: Carrera Profesional 2
+…</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Error en la Columna CARRERA PRIMERA OPCIÓN:  
+El Identificador de Carrera Primera Opción no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si hubo o no segunda opción en el proceso de postulación. Valores:
+1: Si
+2: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Obligatorio, o vacío para indicar Negación</t>
+  </si>
+  <si>
+    <t>Numérico cerrado</t>
+  </si>
+  <si>
+    <t>0, 1 o vacío</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Error en la Columna HUBO SEGUNDA OPCIÓN:
+El código de Hubo Segunda Opción solo debe de llevar valores de 0 o vacío para NO o 1 para SI. Corrija la Columna D, Fila n</t>
+  </si>
+  <si>
+    <t>Debe ser completado solo si se indicó (1) en el casillero anterior. Código de Escuelas profesionales, este código debe extraerse de la tabla maestra de escuelas profesionales. No puede repetir la carrera de primera Opción Ejemplo:
+3: Carrera Profesional 3
+4: Carrera Profesional 4
+…</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para segunda opción</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Error en la Columna CARRERA SEGUNDA OPCIÓN:
+El Identificador de Carrera Segunda Opción no corresponde a ninguna Escuela Profesional registrada en la base de datos. De no haber habido segunda Opción, deje en blanco o con valor de 0 la Columna Hubo Segunda Opcion. Corrija la Columna E, Fila n</t>
+  </si>
+  <si>
+    <t>Código de Modalidad de Admisión, este código debe de extraerse de la tabla maestra de Modalidades de Admisión. Ejemplo:
+1: Examen Ordinario
+2: Examen Primeros Puestos
+…</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Error en la Columna MODALIDAD DE ADMISIÓN:
+El Identificador de Modalidad de Admisión no corresponde a ninguna Modalidad de Admisión registrada en la base de datos. Corrija la Columna F, Fila n</t>
+  </si>
+  <si>
+    <t>Código de modalidad de estudios.  Valores:
+1: Presencial
+2: Semipresencial
+3: Virtual</t>
+  </si>
+  <si>
+    <t>1, 2 , ó 3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Error en la Columna MODALIDAD DE ESTUDIOS:
+El código de Modalidad de Estudios Ingresada no corresponde a los valores posibles de ser consignados. Ingrese 1 para Presencial, ó 2 para Semipresencial ó 3 para Virtual. Corrija la Columna G, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador numérico sobre si el alumno ingresó o no ingresó. Valores: 
+1: Ingresó
+0: No Ingresó
+vacío: No Ingresó</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Error en la Columna ESTADO DE INGRESO:
+El código del Estado de Ingreso no corresponde a los valores posibles de ser consignados. Solo debe de llevar valores de 0 para No Ingresó o 1 para Si Ingresó. Corrija la Columna H, Fila n</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó 1 para estado de Ingreso, debe consignar si o si un código de una de las Escuelas profesionales a las que se indicó que el postulante postuló indicadas en las columnas C Y E de la plantilla de carga de datos, no puede ser otra.
+Ejemplo:
+4: Carrera Profesional 4</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para estado de ingreso</t>
+  </si>
+  <si>
+    <t>Código de la columna C o E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Error en la Columna OPCIÓN DE INGRESO:
+El código de la Opción no corresponde a los valores posibles de ser consignados. Debe consignar el código de la Primera o Segunda Opción a la que postuló según lo indicó en la columna C o E. Corrija la Columna I, Fila n.</t>
+  </si>
+  <si>
+    <t>Código Indicador de Tipo de Documento de Identidad del Postulante. Valores:
+1: DNI
+2: RUC
+3: Carnet de Extranjería
+4: Pasaporte
+5: Partida de Nacimiento</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, ó 5</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Error en la Columna TIPO DE DOCUMENTO:
+El código del Tipo de Documento no corresponde a los valores posibles de ser consignados (1: DNI, 2: RUC, 3: Carnet de Extranjería, 4: Pasaporte, 5: Partida de Nacimiento). Corrija la Columna J, Fila n</t>
+  </si>
+  <si>
+    <t>Número de Documento de Identidad del Postulante</t>
+  </si>
+  <si>
+    <t>Texto alfanumérico</t>
+  </si>
+  <si>
+    <t>Texto de mínimo 8 dígitos sin espacios</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Error en la Columna NÚMERO DE DOCUMENTO:
+El Número de Documento de Indentidad ingresado se encuentran en blanco o no cuenta con un formato correcto. Corrija la Columna K, Fila n</t>
+  </si>
+  <si>
+    <t>Código del Postulante de Admisión</t>
+  </si>
+  <si>
+    <t>Texto alfanumérico, mínimo 1 dígito</t>
+  </si>
+  <si>
+    <t>A.001.002</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Error en la Columna CÓDIGO DE POSTULANTE:
+El código ingresado se encuentran en blanco. Corrija la Columna L, Fila n</t>
+  </si>
+  <si>
+    <t>Apellido Paterno del Postulante</t>
+  </si>
+  <si>
+    <t>CHAUCA</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Error en la Columna APELLIDO PATERNO:
+El Apellido ingresado se encuentran en blanco. Corrija la Columna M, Fila n</t>
+  </si>
+  <si>
+    <t>Apellido Materno del Postulante</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nombres del Postulante</t>
+  </si>
+  <si>
+    <t>Juan Miguel</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Error en la Columna NOMBRES:
+Los Nombres ingresados se encuentran en blanco. Corrija la columna O, Fila n</t>
+  </si>
+  <si>
+    <t>Género Biológico del Postulante. Valores:
+M: masculino
+F: femenino</t>
+  </si>
+  <si>
+    <t>Carácter cerrado</t>
+  </si>
+  <si>
+    <t>M ó F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Error en la Columna GÉNERO:
+Consideró un dato no identificado, indique M para másculino ó F para femenino, sin espacios en blanco. Corrija la Columna P, Fila n</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento del postulante. Formato dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>Formato cerrado</t>
+  </si>
+  <si>
+    <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Error en la Columna FECHA DE NACIMIENTO:
+EL dato ingresado se encuentran en blanco o no tiene un formato correcto. Corrija la Columna Q, Fila n</t>
+  </si>
+  <si>
+    <t>Código indicador del Estado Civil del Postulante. Valores:
+1: Soltero (a)
+2: Casado (a)
+3: Viudo (a)
+4: Divorsiado (a)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, ó 4</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Error en la Columna ESTADO CIVIL:
+El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna R, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el postulante sufre o no discapacidad. Valores:
+1: Si
+2: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Error en la Columna SUFRE DISCAPACIDAD:
+El código de Condición de Discapacidad no corresponde a los valores posibles de ser consignados. Consigne 1 para SI o 0 para NO. Corrija la Columna S, Fila n</t>
+  </si>
+  <si>
+    <t>Discapacidad del Postulante en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para sufre discapacidad</t>
+  </si>
+  <si>
+    <t>Ceguera parcial</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISCAPACIDAD QUE PADECE:
+Si ha ingresado que el Alumno es Discapacitado, ingrese la Discapacidad que padece, no puede dejar el registro en blanco. Corrija la Columna T, Fila n</t>
+  </si>
+  <si>
+    <t>Puntaje que obtuvo el postulante en formato numérico</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t>Datos entre [0: n]</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Error en la Columna PUNTAJE OBTENIDO:
+Ha consignado un valor no válido, Corrija la Columna U, Fila n</t>
+  </si>
+  <si>
+    <t>Pais de procedencia en formato texto</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna V, Fila n</t>
+  </si>
+  <si>
+    <t>Departamento o equivalente de procedencia en formato texto</t>
+  </si>
+  <si>
+    <t>Ancash</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna W, Fila n</t>
+  </si>
+  <si>
+    <t>Provincia o equivalente de procedencia en formato texto</t>
+  </si>
+  <si>
+    <t>Huaraz</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
+La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna X, Fila n</t>
+  </si>
+  <si>
+    <t>Distrito o equivalente de procedencia en formato texto</t>
+  </si>
+  <si>
+    <t>Independencia</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna Y, Fila n</t>
+  </si>
+  <si>
+    <t>Colegio en formato texto donde el postulante finalizó su 5° de Secundaria</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Error en la Columna COLEGIO DONDE TERMINÓ EL 5° GRADO DE SECUNADARIA:
+El Valor ingresado se encuentran en blanco. Corrija la Columna Z, Fila n</t>
+  </si>
+  <si>
+    <t>Código Identificador del Tipo de Gestión del Colegio. Valores:
+1: Pública.
+2: Privada</t>
+  </si>
+  <si>
+    <t>1 ó 2</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Error en la Columna GESTIÓN DEL COLEGIO:
+El código de Tipo de Gestión del Colegio no corresponde a los valores posibles de ser consignados. Indique 1 para Estatal ó 2 para Particular. Corrija la Columna AA, Fila n</t>
+  </si>
+  <si>
+    <t>Dirección de domicilio del Postulante en formato texto</t>
+  </si>
+  <si>
+    <t>Jr. San Martín N° 234</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL POSTULANTE:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AB, Fila n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo Electrónico Personal del Postulante </t>
+  </si>
+  <si>
+    <t>Texto alfanumérico sin espacios formato correo</t>
+  </si>
+  <si>
+    <t>Texto alfanumérico, formato correo nombre@dominio.ext</t>
+  </si>
+  <si>
+    <t>juan@gmail.com</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AC, Fila n</t>
+  </si>
+  <si>
+    <t>Teléfono del Postulante</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Observaciones del registro en formato Texto</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Nota: Llenar la Hoja1 del Excel según las Instrucciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,8 +718,97 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +821,23 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,11 +860,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,8 +918,74 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,148 +1291,148 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
     <col min="17" max="17" width="21" style="1" customWidth="1"/>
     <col min="18" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="29.21875" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="24.88671875" customWidth="1"/>
-    <col min="23" max="23" width="33.6640625" customWidth="1"/>
-    <col min="24" max="24" width="28.6640625" customWidth="1"/>
-    <col min="25" max="25" width="26.44140625" customWidth="1"/>
-    <col min="26" max="26" width="51.77734375" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="33.7109375" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" customWidth="1"/>
+    <col min="26" max="26" width="51.7109375" customWidth="1"/>
     <col min="27" max="27" width="23" customWidth="1"/>
     <col min="28" max="28" width="31" customWidth="1"/>
-    <col min="29" max="29" width="30.33203125" customWidth="1"/>
+    <col min="29" max="29" width="30.28515625" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="43.6640625" customWidth="1"/>
+    <col min="31" max="31" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>56</v>
-      </c>
       <c r="AD1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AE1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -822,4 +1520,973 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="77.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="20">
+        <v>2</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="20">
+        <v>4</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="20">
+        <v>65745985</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>17</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="23">
+        <v>34929</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>18</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="20">
+        <v>2</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>19</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>20</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>21</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="20">
+        <v>158</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>22</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>23</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>24</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>25</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>26</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>27</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>28</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>29</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>30</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="15">
+        <v>945625285</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>31</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Postulantes_Pregrado_Plantilla_Carga_Datos.xlsx
@@ -296,12 +296,6 @@
 El Identificador de Carrera Primera Opción no corresponde a ninguna Escuela Profesional registrada en la base de datos. Corrija la Columna C, Fila n</t>
   </si>
   <si>
-    <t>Indicador si hubo o no segunda opción en el proceso de postulación. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Obligatorio, o vacío para indicar Negación</t>
   </si>
   <si>
@@ -530,12 +524,6 @@
 El código del Estado CIvil no corresponde a los valores posibles de ser consignados (1: Soltero (a), 2: Casado (a), 3: Viudo (a), ó 4: Divorsiado (a)). Corrija la Columna R, Fila n</t>
   </si>
   <si>
-    <t>Indicador si el postulante sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -699,7 +687,19 @@
     <t>AE</t>
   </si>
   <si>
-    <t>Nota: Llenar la Hoja1 del Excel según las Instrucciones</t>
+    <t>Indicador si hubo o no segunda opción en el proceso de postulación. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el postulante sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
   <dimension ref="A2:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>3</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>4</v>
       </c>
@@ -1686,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1715,10 +1715,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>74</v>
@@ -1730,10 +1730,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="91.5" x14ac:dyDescent="0.35">
@@ -1744,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>78</v>
@@ -1759,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="H13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1773,25 +1773,25 @@
         <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="20">
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1802,25 +1802,25 @@
         <v>17</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="G15" s="20">
         <v>0</v>
       </c>
       <c r="H15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1831,25 +1831,25 @@
         <v>18</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="20">
         <v>4</v>
       </c>
       <c r="H16" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1860,25 +1860,25 @@
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="20">
         <v>1</v>
       </c>
       <c r="H17" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1889,25 +1889,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="20">
         <v>65745985</v>
       </c>
       <c r="H18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1918,25 +1918,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="H19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="I19" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1947,25 +1947,25 @@
         <v>4</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="I20" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1976,22 +1976,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -2003,25 +2003,25 @@
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="I22" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2032,25 +2032,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="I23" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2061,25 +2061,25 @@
         <v>8</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="G24" s="23">
         <v>34929</v>
       </c>
       <c r="H24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -2090,25 +2090,25 @@
         <v>9</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="20">
         <v>2</v>
       </c>
       <c r="H25" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2119,25 +2119,25 @@
         <v>10</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="G26" s="18">
         <v>1</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -2148,25 +2148,25 @@
         <v>11</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="H27" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="20" t="s">
+      <c r="I27" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2177,25 +2177,25 @@
         <v>16</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G28" s="20">
         <v>158</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2206,25 +2206,25 @@
         <v>19</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2235,25 +2235,25 @@
         <v>20</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2264,25 +2264,25 @@
         <v>21</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2293,25 +2293,25 @@
         <v>22</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G32" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2322,25 +2322,25 @@
         <v>23</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2351,25 +2351,25 @@
         <v>24</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G34" s="20">
         <v>1</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2380,25 +2380,25 @@
         <v>25</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G35" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2409,25 +2409,25 @@
         <v>26</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="H36" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="I36" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2438,22 +2438,22 @@
         <v>27</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="15">
         <v>945625285</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2465,20 +2465,20 @@
         <v>28</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I38" s="13"/>
     </row>
@@ -2487,6 +2487,6 @@
     <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>